--- a/assets/excel/data_supplier.xlsx
+++ b/assets/excel/data_supplier.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -38,25 +38,7 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>Cimahi</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Hello22</t>
-  </si>
-  <si>
-    <t>hello@gmail.com</t>
-  </si>
-  <si>
-    <t>Bandung</t>
+    <t>unknown@mail.com</t>
   </si>
 </sst>
 </file>
@@ -395,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,50 +409,20 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>6136456845</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>154324564</v>
-      </c>
-      <c r="D4">
-        <v>12544321321</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
